--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b263e93dc55726bd/TinyRISC project/GT backup/TinyRISC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luc\OneDrive\TinyRISC project\GT backup\TinyRISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{48DA38A7-77A6-4A3A-98CD-16F12D973625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8051E094-40F2-4830-B4E3-3800CE9C3244}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED9C06C-EEBE-4F0F-9F8B-78EEE50E693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B52795F7-F691-4646-A958-1EA5102A7668}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">ALU!$A$2:$J$21</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">ALU!$A$2:$I$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Supplier and ref</t>
   </si>
   <si>
-    <t>In cart?</t>
-  </si>
-  <si>
     <t>Per unit Price</t>
   </si>
   <si>
@@ -87,9 +85,6 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>5V/GND1</t>
   </si>
   <si>
@@ -102,9 +97,6 @@
     <t/>
   </si>
   <si>
-    <t>Already have</t>
-  </si>
-  <si>
     <t>XOR_GATE0,SR_GATE0,SL_GATE0,OR_GATE1,NAND_GATE0,FlagsRight1,FlagsLogical1,FlagsLeft1,FlagsAdd0,AND_GATE1,ADD_GATE1,ADD_GATE0</t>
   </si>
   <si>
@@ -219,9 +211,6 @@
     <t>ALU</t>
   </si>
   <si>
-    <t>Yes, bought more</t>
-  </si>
-  <si>
     <t>Bought</t>
   </si>
   <si>
@@ -237,9 +226,6 @@
     <t>https://www.mouser.fr/ProductDetail/Texas-Instruments/SN74F04N?qs=sGAEpiMZZMv0NwlthflBiyUjw%252B9sXLI2</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>https://www.mouser.fr/ProductDetail/Texas-Instruments/SN74F08N?qs=sGAEpiMZZMv0NwlthflBi%2FjZjZ8DIWBR</t>
   </si>
   <si>
@@ -259,6 +245,96 @@
   </si>
   <si>
     <t>https://www.mouser.fr/ProductDetail/YAGEO/CFR-50JR-52-10K?qs=sGAEpiMZZMsPqMdJzcrNwglYvoMy2gTbzHMh8poK%252B9k%3D</t>
+  </si>
+  <si>
+    <t>C?</t>
+  </si>
+  <si>
+    <t>DIP-24_W7.62mm</t>
+  </si>
+  <si>
+    <t>74F825</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Potentiometer_Trimmer_ACP_CA14h5_Vertical_Px5.0mm_Py10.0mm</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>JST_NV_B02P-NV_2x5.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>POWER/GND</t>
+  </si>
+  <si>
+    <t>1pin</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>JST_XH_B04B-XH-A_04x2.50mm_Straight</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>JST_XH_B16B-XH-A_16x2.50mm_Straight</t>
+  </si>
+  <si>
+    <t>PC_OFFS</t>
+  </si>
+  <si>
+    <t>PC_OUT</t>
+  </si>
+  <si>
+    <t>Program Counter</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>Pin_D1.0mm_L10.0mm</t>
+  </si>
+  <si>
+    <t>Conn_01x01_Male</t>
+  </si>
+  <si>
+    <t>Conn_01x08_Male</t>
+  </si>
+  <si>
+    <t>6pinIDC</t>
+  </si>
+  <si>
+    <t>74F573</t>
+  </si>
+  <si>
+    <t>74F138</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>JST_XH_B2B-XH-AM_1x02_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>GP register file</t>
+  </si>
+  <si>
+    <t>See ALU</t>
+  </si>
+  <si>
+    <t>Bought on ebay (will have to check function)</t>
   </si>
 </sst>
 </file>
@@ -309,37 +385,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -360,35 +480,36 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{06761F6C-108C-4949-A2C7-74B5F045ED7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
-    <queryTableFields count="10">
+    <queryTableFields count="9">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Package" tableColumnId="3"/>
       <queryTableField id="4" name="Quantity" tableColumnId="4"/>
       <queryTableField id="5" name="Designation" tableColumnId="5"/>
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
-      <queryTableField id="7" name="In cart?" tableColumnId="7"/>
       <queryTableField id="10" dataBound="0" tableColumnId="10"/>
       <queryTableField id="8" name="Per unit Price" tableColumnId="8"/>
       <queryTableField id="9" name="Total price" tableColumnId="9"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="In cart?"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7CADF65-00B1-4231-B38A-8A099E93692C}" name="ALU" displayName="ALU" ref="A2:J21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A2:J21" xr:uid="{B7CADF65-00B1-4231-B38A-8A099E93692C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7CADF65-00B1-4231-B38A-8A099E93692C}" name="ALU" displayName="ALU" ref="A2:I22" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A2:I22" xr:uid="{B7CADF65-00B1-4231-B38A-8A099E93692C}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{030D7537-3B14-4EAA-B716-040449D1C59D}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1E19ED32-2118-4FF9-823D-4D300A33B494}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B48C66A0-4A64-4C97-B9AD-EE1A301E3DB4}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BA42D291-A1F9-4C73-B3B8-4275196195A6}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
+    <tableColumn id="2" xr3:uid="{1E19ED32-2118-4FF9-823D-4D300A33B494}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B48C66A0-4A64-4C97-B9AD-EE1A301E3DB4}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BA42D291-A1F9-4C73-B3B8-4275196195A6}" uniqueName="4" name="Quantity" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{58D8343E-5F7D-410F-9EBF-92DD8801C8F0}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{C83D39D8-CA17-49B8-AF0E-E03CCB99E0BD}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{33EB8F9F-F431-416A-9797-7A50CE3881F7}" uniqueName="7" name="In cart?" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{AECE8E41-5B68-4720-8736-C4C51611B91A}" uniqueName="10" name="Bought" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{74F8E388-5C80-49A2-992E-F1E76EF87F0F}" uniqueName="8" name="Per unit Price" queryTableFieldId="8"/>
+    <tableColumn id="10" xr3:uid="{AECE8E41-5B68-4720-8736-C4C51611B91A}" uniqueName="10" name="Bought" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{74F8E388-5C80-49A2-992E-F1E76EF87F0F}" uniqueName="8" name="Per unit Price" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{AAF654DD-0414-4EC5-ADFD-E21439987DCC}" uniqueName="9" name="Total price" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -692,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2162F6EE-2F77-4C18-9E3A-F11F9F9275AE}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,626 +826,1131 @@
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>0.59</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="I3" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="4">
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="3">
         <v>0.89800000000000002</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>10.776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11.673999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8">
         <v>100</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="I6" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7">
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>4.2069999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.6059999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8">
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J8" s="4">
+      <c r="I8" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
         <v>1.677</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.69</v>
       </c>
-      <c r="J10" s="4">
+      <c r="I10" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13">
+      <c r="E13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3">
         <v>1.42</v>
       </c>
-      <c r="J13" s="4">
+      <c r="I13" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14">
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J14" s="4">
+      <c r="I14" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>1.1180000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.2360000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15">
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="J15" s="4">
+      <c r="I15" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>1.8029999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.4039999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I16" s="7">
+        <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I17" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="J17" s="4">
-        <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3">
         <v>36</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="8">
         <v>100</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="I18" s="7">
         <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I19" s="7">
+        <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
+        <v>4.9319999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I21" s="7">
+        <f>SUM(I3:I19)</f>
+        <v>47.354999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="7">
+        <f>SUM(I4:I20)</f>
+        <v>42.225000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="3">
+        <v>100</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="3">
         <v>4</v>
       </c>
-      <c r="I19">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J19" s="4">
-        <f>ALU[[#This Row],[Per unit Price]]*ALU[[#This Row],[Bought]]</f>
-        <v>3.2879999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D45" s="3">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>15</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3">
         <v>17</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20">
-        <v>0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="J21" s="4">
-        <f>SUM(J3:J19)</f>
-        <v>46.921999999999997</v>
-      </c>
+      <c r="E50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="3">
+        <v>100</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="3">
+        <v>100</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1338,11 +1964,13 @@
     <hyperlink ref="F8" r:id="rId5" xr:uid="{0FA5EC02-D8F5-4E87-BB0E-547AC133065B}"/>
     <hyperlink ref="F9" r:id="rId6" xr:uid="{7E5B8529-35AB-4C3A-9EB0-36A44F7CF8F0}"/>
     <hyperlink ref="F14" r:id="rId7" xr:uid="{81C49B0D-23FB-4BBC-ACE4-F69EA10E6768}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{89169DC5-9F42-404E-9C6F-9FF2123064DE}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{6FCA5DAC-7967-4A14-B0F7-46EA688CC3D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
